--- a/17 oct 2022 - schedule training.xlsx
+++ b/17 oct 2022 - schedule training.xlsx
@@ -365,17 +365,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
@@ -474,9 +474,33 @@
         <v>44851</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
